--- a/Submission_Scores.xlsx
+++ b/Submission_Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill\Documents\Orange_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC464C0-8AFE-4F21-86DD-9B96C4BE30F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8E07E-FE78-427D-B512-D203F7B575EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{205EA8B4-BE23-46CC-AFC4-FB3448D49781}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Logistic regression only</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Aggregation of 5 models (Log. Reg., SVC, Random Forest, KNN, Multinomial NB) through voting. Models' influence on the vote is weighted through Logistic Regression</t>
+  </si>
+  <si>
+    <t>Reduce duplicate rows to 1 entry. Completely eliminate contradicting duplicates (=same text but target is not consistent: sometimes 1, sometimes 0)</t>
   </si>
 </sst>
 </file>
@@ -118,8 +121,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1770B4E5-A2BE-4EFE-BD2E-A4079BC26430}" name="Tabelle1" displayName="Tabelle1" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{8ADDF96D-7A1F-4586-8BA2-BFE54049D6A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1770B4E5-A2BE-4EFE-BD2E-A4079BC26430}" name="Tabelle1" displayName="Tabelle1" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{8ADDF96D-7A1F-4586-8BA2-BFE54049D6A3}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B6FD9E81-0822-44EA-B6C9-ABBB4A0C56B9}" name="Model"/>
     <tableColumn id="2" xr3:uid="{74464167-D9BD-47BD-B5D9-945AE60CEE04}" name="F1-score"/>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73592D3C-A9FE-4E36-BA59-EAC5F987F5E1}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,6 +512,14 @@
         <v>0.80879000000000001</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.81594999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Submission_Scores.xlsx
+++ b/Submission_Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill\Documents\Orange_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8E07E-FE78-427D-B512-D203F7B575EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71ACFC0-0003-4FBD-A0ED-389AD79E52B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{205EA8B4-BE23-46CC-AFC4-FB3448D49781}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>KNN with optimal number of neighbours (=1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nultinomial Naive bayes </t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Reduce duplicate rows to 1 entry. Completely eliminate contradicting duplicates (=same text but target is not consistent: sometimes 1, sometimes 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinomial Naive bayes </t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,10 +442,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -498,7 +498,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.80264999999999997</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.80879000000000001</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.81594999999999995</v>
